--- a/tutorial/empty.xlsx
+++ b/tutorial/empty.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
     <sheet name="METS" sheetId="2" r:id="rId2"/>
     <sheet name="COMPS" sheetId="3" r:id="rId3"/>
-    <sheet name="MODEL" sheetId="4" r:id="rId4"/>
+    <sheet name="GENES" sheetId="5" r:id="rId4"/>
+    <sheet name="MODEL" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -201,6 +202,12 @@
   </si>
   <si>
     <t>rasmus.agren@scilifelab.se</t>
+  </si>
+  <si>
+    <t>SHORT NAME</t>
+  </si>
+  <si>
+    <t>g1</t>
   </si>
 </sst>
 </file>
@@ -627,6 +634,12 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
@@ -704,6 +717,9 @@
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -721,6 +737,9 @@
       <c r="I3" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -738,6 +757,9 @@
       <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -754,6 +776,9 @@
       </c>
       <c r="I5" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -811,6 +836,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
